--- a/libs/excelData/craneSpecTable/L_1090_4.1.xlsx
+++ b/libs/excelData/craneSpecTable/L_1090_4.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\craneSpecTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="T_21t_TAB1501029" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="TVNZK_21t_TAB1501561.2" sheetId="13" r:id="rId13"/>
     <sheet name="THK_21t_TAB1501621" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,10 +782,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
         <v>14.7</v>
@@ -2402,9 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2416,13 +2414,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>39.700000000000003</v>
@@ -4444,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4458,13 +4456,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>39.700000000000003</v>
@@ -6490,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6504,13 +6502,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>39.700000000000003</v>
@@ -8512,8 +8510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8526,13 +8524,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>39.700000000000003</v>
@@ -10549,7 +10547,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10562,7 +10560,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
         <v>14.7</v>
@@ -12138,8 +12136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12152,7 +12150,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
         <v>14.7</v>
@@ -13678,8 +13676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13692,7 +13690,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
         <v>14.7</v>
@@ -15107,8 +15105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15121,7 +15119,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
         <v>14.7</v>
@@ -16526,9 +16524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17179,8 +17175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17193,13 +17189,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>25.4</v>
@@ -20469,8 +20465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20483,13 +20479,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>29</v>
@@ -23578,8 +23574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23592,13 +23588,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>25.4</v>
@@ -26758,8 +26754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26772,13 +26768,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D1" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E1" s="2">
         <v>29</v>
